--- a/myexcel.xlsx
+++ b/myexcel.xlsx
@@ -14,9 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>jaimini</t>
+  </si>
+  <si>
+    <t>kluhikjnkldas'</t>
+  </si>
+  <si>
+    <t>;ww</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -24,12 +33,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -39,6 +48,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -46,7 +62,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -61,7 +84,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -91,21 +122,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -122,6 +138,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -131,43 +154,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,61 +200,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,13 +314,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,97 +368,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,6 +391,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -440,30 +457,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -481,6 +474,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -492,153 +494,154 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -958,13 +961,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
@@ -974,6 +977,21 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="3:3">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/myexcel.xlsx
+++ b/myexcel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>jaimini</t>
   </si>
@@ -27,15 +27,18 @@
   <si>
     <t/>
   </si>
+  <si>
+    <t>klmjnlkmm,</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -48,33 +51,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -83,8 +87,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,30 +133,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -139,7 +150,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,14 +172,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,30 +180,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,187 +203,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,17 +397,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,6 +445,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -474,15 +486,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -494,148 +497,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -961,13 +964,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
@@ -987,9 +990,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
+    <row r="4" spans="3:9">
       <c r="C4" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/myexcel.xlsx
+++ b/myexcel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>jaimini</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>;ww</t>
+  </si>
+  <si>
+    <t>mansi</t>
   </si>
   <si>
     <t/>
@@ -36,10 +39,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -51,21 +54,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -79,32 +67,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,6 +90,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -149,44 +174,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -203,19 +206,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,25 +356,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,133 +374,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,54 +397,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -464,7 +419,57 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,18 +491,19 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -509,136 +515,133 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -967,7 +970,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -990,12 +993,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:9">
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
